--- a/MK_Survival.xlsx
+++ b/MK_Survival.xlsx
@@ -1,158 +1,139 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\corp.natfuel.com\Users\GoodingK\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kylet\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{945F962C-63F4-4C2F-9EA2-3D6930795F79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14235" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Convoluted Scenario Table" sheetId="2" r:id="rId2"/>
+    <sheet name="Convoluted Scenario Table" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="1" hidden="1">'Convoluted Scenario Table'!$M$2:$T$13</definedName>
-    <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
-    <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_eng" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="1" hidden="1">'Convoluted Scenario Table'!$M$14</definedName>
-    <definedName name="solver_lhs10" localSheetId="1" hidden="1">'Convoluted Scenario Table'!$U$10</definedName>
-    <definedName name="solver_lhs11" localSheetId="1" hidden="1">'Convoluted Scenario Table'!$U$11</definedName>
-    <definedName name="solver_lhs12" localSheetId="1" hidden="1">'Convoluted Scenario Table'!$U$12</definedName>
-    <definedName name="solver_lhs13" localSheetId="1" hidden="1">'Convoluted Scenario Table'!$U$13</definedName>
-    <definedName name="solver_lhs14" localSheetId="1" hidden="1">'Convoluted Scenario Table'!$U$2</definedName>
-    <definedName name="solver_lhs15" localSheetId="1" hidden="1">'Convoluted Scenario Table'!$U$3</definedName>
-    <definedName name="solver_lhs16" localSheetId="1" hidden="1">'Convoluted Scenario Table'!$U$4</definedName>
-    <definedName name="solver_lhs17" localSheetId="1" hidden="1">'Convoluted Scenario Table'!$U$5</definedName>
-    <definedName name="solver_lhs18" localSheetId="1" hidden="1">'Convoluted Scenario Table'!$U$6</definedName>
-    <definedName name="solver_lhs19" localSheetId="1" hidden="1">'Convoluted Scenario Table'!$U$7</definedName>
-    <definedName name="solver_lhs2" localSheetId="1" hidden="1">'Convoluted Scenario Table'!$M$2:$T$13</definedName>
-    <definedName name="solver_lhs20" localSheetId="1" hidden="1">'Convoluted Scenario Table'!$U$8</definedName>
-    <definedName name="solver_lhs21" localSheetId="1" hidden="1">'Convoluted Scenario Table'!$U$9</definedName>
-    <definedName name="solver_lhs22" localSheetId="1" hidden="1">'Convoluted Scenario Table'!$U$9</definedName>
-    <definedName name="solver_lhs3" localSheetId="1" hidden="1">'Convoluted Scenario Table'!$N$14</definedName>
-    <definedName name="solver_lhs4" localSheetId="1" hidden="1">'Convoluted Scenario Table'!$O$14</definedName>
-    <definedName name="solver_lhs5" localSheetId="1" hidden="1">'Convoluted Scenario Table'!$P$14</definedName>
-    <definedName name="solver_lhs6" localSheetId="1" hidden="1">'Convoluted Scenario Table'!$Q$14</definedName>
-    <definedName name="solver_lhs7" localSheetId="1" hidden="1">'Convoluted Scenario Table'!$R$14</definedName>
-    <definedName name="solver_lhs8" localSheetId="1" hidden="1">'Convoluted Scenario Table'!$S$14</definedName>
-    <definedName name="solver_lhs9" localSheetId="1" hidden="1">'Convoluted Scenario Table'!$T$14</definedName>
-    <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
-    <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
-    <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_num" localSheetId="1" hidden="1">21</definedName>
-    <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="1" hidden="1">'Convoluted Scenario Table'!$AE$14</definedName>
-    <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
-    <definedName name="solver_rbv" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_rel1" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rel10" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_rel11" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_rel12" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_rel13" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_rel14" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_rel15" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_rel16" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_rel17" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_rel18" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_rel19" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_rel2" localSheetId="1" hidden="1">4</definedName>
-    <definedName name="solver_rel20" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_rel21" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_rel22" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_rel3" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rel4" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rel5" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rel6" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rel7" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rel8" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rel9" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rhs1" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_rhs10" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rhs11" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rhs12" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rhs13" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rhs14" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rhs15" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rhs16" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rhs17" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rhs18" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rhs19" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rhs2" localSheetId="1" hidden="1">"integer"</definedName>
-    <definedName name="solver_rhs20" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rhs21" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rhs22" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rhs3" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_rhs4" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_rhs5" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_rhs6" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_rhs7" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_rhs8" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_rhs9" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
-    <definedName name="solver_scl" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
-    <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
-    <definedName name="solver_typ" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
-    <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">'Convoluted Scenario Table'!$M$2:$T$13</definedName>
+    <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">'Convoluted Scenario Table'!$M$14</definedName>
+    <definedName name="solver_lhs10" localSheetId="0" hidden="1">'Convoluted Scenario Table'!$U$10</definedName>
+    <definedName name="solver_lhs11" localSheetId="0" hidden="1">'Convoluted Scenario Table'!$U$11</definedName>
+    <definedName name="solver_lhs12" localSheetId="0" hidden="1">'Convoluted Scenario Table'!$U$12</definedName>
+    <definedName name="solver_lhs13" localSheetId="0" hidden="1">'Convoluted Scenario Table'!$U$13</definedName>
+    <definedName name="solver_lhs14" localSheetId="0" hidden="1">'Convoluted Scenario Table'!$U$2</definedName>
+    <definedName name="solver_lhs15" localSheetId="0" hidden="1">'Convoluted Scenario Table'!$U$3</definedName>
+    <definedName name="solver_lhs16" localSheetId="0" hidden="1">'Convoluted Scenario Table'!$U$4</definedName>
+    <definedName name="solver_lhs17" localSheetId="0" hidden="1">'Convoluted Scenario Table'!$U$5</definedName>
+    <definedName name="solver_lhs18" localSheetId="0" hidden="1">'Convoluted Scenario Table'!$U$6</definedName>
+    <definedName name="solver_lhs19" localSheetId="0" hidden="1">'Convoluted Scenario Table'!$U$7</definedName>
+    <definedName name="solver_lhs2" localSheetId="0" hidden="1">'Convoluted Scenario Table'!$M$2:$T$13</definedName>
+    <definedName name="solver_lhs20" localSheetId="0" hidden="1">'Convoluted Scenario Table'!$U$8</definedName>
+    <definedName name="solver_lhs21" localSheetId="0" hidden="1">'Convoluted Scenario Table'!$U$9</definedName>
+    <definedName name="solver_lhs22" localSheetId="0" hidden="1">'Convoluted Scenario Table'!$U$9</definedName>
+    <definedName name="solver_lhs3" localSheetId="0" hidden="1">'Convoluted Scenario Table'!$N$14</definedName>
+    <definedName name="solver_lhs4" localSheetId="0" hidden="1">'Convoluted Scenario Table'!$O$14</definedName>
+    <definedName name="solver_lhs5" localSheetId="0" hidden="1">'Convoluted Scenario Table'!$P$14</definedName>
+    <definedName name="solver_lhs6" localSheetId="0" hidden="1">'Convoluted Scenario Table'!$Q$14</definedName>
+    <definedName name="solver_lhs7" localSheetId="0" hidden="1">'Convoluted Scenario Table'!$R$14</definedName>
+    <definedName name="solver_lhs8" localSheetId="0" hidden="1">'Convoluted Scenario Table'!$S$14</definedName>
+    <definedName name="solver_lhs9" localSheetId="0" hidden="1">'Convoluted Scenario Table'!$T$14</definedName>
+    <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">21</definedName>
+    <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">'Convoluted Scenario Table'!$AE$14</definedName>
+    <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rel1" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel10" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rel11" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rel12" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rel13" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rel14" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rel15" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rel16" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rel17" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rel18" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rel19" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rel2" localSheetId="0" hidden="1">4</definedName>
+    <definedName name="solver_rel20" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rel21" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rel22" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rel3" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel4" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel5" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel6" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel7" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel8" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel9" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rhs1" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rhs10" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rhs11" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rhs12" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rhs13" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rhs14" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rhs15" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rhs16" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rhs17" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rhs18" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rhs19" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rhs2" localSheetId="0" hidden="1">"integer"</definedName>
+    <definedName name="solver_rhs20" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rhs21" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rhs22" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rhs3" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rhs4" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rhs5" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rhs6" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rhs7" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rhs8" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rhs9" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="56">
-  <si>
-    <t>Arizona Cardinals</t>
-  </si>
-  <si>
-    <t>Atlanta Falcons</t>
-  </si>
-  <si>
-    <t>Baltimore Ravens</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="21">
   <si>
     <t>Buffalo Bills</t>
   </si>
   <si>
-    <t>Carolina Panthers</t>
-  </si>
-  <si>
     <t>Chicago Bears</t>
-  </si>
-  <si>
-    <t>Cincinnati Bengals</t>
-  </si>
-  <si>
-    <t>Cleveland Browns</t>
-  </si>
-  <si>
-    <t>Dallas Cowboys</t>
-  </si>
-  <si>
-    <t>Denver Broncos</t>
-  </si>
-  <si>
-    <t>Detroit Lions</t>
   </si>
   <si>
     <t>Green Bay Packers</t>
@@ -161,31 +142,7 @@
     <t>Houston Texans</t>
   </si>
   <si>
-    <t>Indianapolis Colts</t>
-  </si>
-  <si>
     <t>Jacksonville Jaguars</t>
-  </si>
-  <si>
-    <t>Kansas City Chiefs</t>
-  </si>
-  <si>
-    <t>Las Vegas Raiders</t>
-  </si>
-  <si>
-    <t>Los Angeles Chargers</t>
-  </si>
-  <si>
-    <t>Los Angeles Rams</t>
-  </si>
-  <si>
-    <t>Miami Dolphins</t>
-  </si>
-  <si>
-    <t>Minnesota Vikings</t>
-  </si>
-  <si>
-    <t>New England Patriots</t>
   </si>
   <si>
     <t>New Orleans Saints</t>
@@ -200,67 +157,13 @@
     <t>Philadelphia Eagles</t>
   </si>
   <si>
-    <t>Pittsburgh Steelers</t>
-  </si>
-  <si>
-    <t>San Francisco 49ers</t>
-  </si>
-  <si>
     <t>Seattle Seahawks</t>
   </si>
   <si>
     <t>Tampa Bay Buccaneers</t>
   </si>
   <si>
-    <t>Tennessee Titans</t>
-  </si>
-  <si>
     <t>Washington Football Team</t>
-  </si>
-  <si>
-    <t>Team</t>
-  </si>
-  <si>
-    <t>Pick</t>
-  </si>
-  <si>
-    <t>Result</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>W</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BYE  </t>
-  </si>
-  <si>
-    <t>11,18</t>
-  </si>
-  <si>
-    <t>bye</t>
-  </si>
-  <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>Left to pick</t>
-  </si>
-  <si>
-    <t>Week</t>
-  </si>
-  <si>
-    <t>Expected result</t>
-  </si>
-  <si>
-    <t>Best Possible Result</t>
-  </si>
-  <si>
-    <t>lower is better</t>
   </si>
   <si>
     <t>Week 11</t>
@@ -293,11 +196,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -305,33 +208,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -361,43 +244,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -432,16 +287,6 @@
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -720,670 +565,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O48"/>
-  <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="7"/>
-    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="L4">
-        <v>11</v>
-      </c>
-      <c r="M4" t="s">
-        <v>40</v>
-      </c>
-      <c r="O4" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="7">
-        <v>15</v>
-      </c>
-      <c r="L5">
-        <v>12</v>
-      </c>
-      <c r="M5">
-        <v>-4.5</v>
-      </c>
-      <c r="N5">
-        <v>1.5</v>
-      </c>
-      <c r="O5" s="9">
-        <f>+M5+N5</f>
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="L6">
-        <f>+L5+1</f>
-        <v>13</v>
-      </c>
-      <c r="M6">
-        <v>-5</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6" s="9">
-        <f t="shared" ref="O6:O10" si="0">+M6+N6</f>
-        <v>-4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="7">
-        <v>12</v>
-      </c>
-      <c r="L7">
-        <f t="shared" ref="L7:L10" si="1">+L6+1</f>
-        <v>14</v>
-      </c>
-      <c r="M7">
-        <v>-6.5</v>
-      </c>
-      <c r="N7">
-        <v>-5.5</v>
-      </c>
-      <c r="O7" s="9">
-        <f t="shared" si="0"/>
-        <v>-12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="L8">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="M8">
-        <v>-6.5</v>
-      </c>
-      <c r="N8">
-        <v>-6.5</v>
-      </c>
-      <c r="O8" s="9">
-        <f t="shared" si="0"/>
-        <v>-13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="L9">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="M9">
-        <v>-7</v>
-      </c>
-      <c r="N9">
-        <v>2</v>
-      </c>
-      <c r="O9" s="9">
-        <f t="shared" si="0"/>
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="L10">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="M10">
-        <v>11</v>
-      </c>
-      <c r="N10">
-        <v>1.5</v>
-      </c>
-      <c r="O10" s="9">
-        <f t="shared" si="0"/>
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="L11">
-        <v>18</v>
-      </c>
-      <c r="M11" t="s">
-        <v>40</v>
-      </c>
-      <c r="O11" s="9">
-        <f>SUM(O5:O10)</f>
-        <v>-24.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="7">
-        <v>16</v>
-      </c>
-      <c r="H13" t="s">
-        <v>38</v>
-      </c>
-      <c r="I13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="8">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="7">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="7">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="7">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="7">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="7">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="7">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>42</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E35" t="s">
-        <v>44</v>
-      </c>
-      <c r="F35" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="7">
-        <v>15</v>
-      </c>
-      <c r="E36">
-        <v>-6.5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="7">
-        <v>12</v>
-      </c>
-      <c r="E37">
-        <v>-4.5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="7">
-        <v>16</v>
-      </c>
-      <c r="E38">
-        <v>-7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="8">
-        <v>17</v>
-      </c>
-      <c r="E39">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="7">
-        <v>16</v>
-      </c>
-      <c r="E40">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="7">
-        <v>14</v>
-      </c>
-      <c r="E41">
-        <v>-5.5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="7">
-        <v>17</v>
-      </c>
-      <c r="E42">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="7">
-        <v>12</v>
-      </c>
-      <c r="E43">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="7">
-        <v>13</v>
-      </c>
-      <c r="E44">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="7">
-        <v>14</v>
-      </c>
-      <c r="E45">
-        <v>-6.5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="7">
-        <v>15</v>
-      </c>
-      <c r="E46">
-        <v>-6.5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="7">
-        <v>13</v>
-      </c>
-      <c r="E47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C48" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E48">
-        <f>SUM(E36:E47)</f>
-        <v>-24.5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AE52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1395,108 +581,108 @@
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="E1" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="F1" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="G1" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="H1" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="I1" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="M1" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="N1" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="O1" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="P1" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="Q1" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="R1" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="S1" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="T1" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="X1" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="Y1" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="Z1" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="AA1" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="AB1" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="AC1" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="AD1" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="AE1" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>-6</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="2">
         <v>-3</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="2">
         <v>-4.5</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="2">
         <v>1.5</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="2">
         <v>-6.5</v>
       </c>
-      <c r="G2" s="10">
-        <v>0</v>
-      </c>
-      <c r="H2" s="10">
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
         <v>-11.5</v>
       </c>
-      <c r="I2" s="10">
+      <c r="I2" s="2">
         <v>-15.5</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -1527,7 +713,7 @@
         <v>1</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X2">
         <f>B2*M2</f>
@@ -1564,34 +750,34 @@
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>2.5</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="2">
         <v>-4.5</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="2">
         <v>6</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="2">
         <v>12</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="2">
         <v>2</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="2">
         <v>6</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="2">
         <v>-1.5</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="2">
         <v>6.5</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -1622,7 +808,7 @@
         <v>1</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="X3">
         <f t="shared" ref="X3:X13" si="2">B3*M3</f>
@@ -1659,34 +845,34 @@
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>-2.5</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="2">
         <v>-2.5</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="2">
         <v>999</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="2">
         <v>-12</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="2">
         <v>-1</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="2">
         <v>-7</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="2">
         <v>-7</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="2">
         <v>-13.5</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -1717,7 +903,7 @@
         <v>1</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="X4">
         <f t="shared" si="2"/>
@@ -1754,34 +940,34 @@
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>15</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="2">
         <v>-1.5</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="2">
         <v>8</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="2">
         <v>6.5</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="2">
         <v>3.5</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="2">
         <v>7.5</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="2">
         <v>11</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5" s="2">
         <v>11.5</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -1812,7 +998,7 @@
         <v>1</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="X5">
         <f t="shared" si="2"/>
@@ -1849,34 +1035,34 @@
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>4</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="2">
         <v>1.5</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="2">
         <v>14.5</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="2">
         <v>16</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="2">
         <v>-3.5</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="2">
         <v>2</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="2">
         <v>13</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I6" s="2">
         <v>6.5</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -1907,7 +1093,7 @@
         <v>1</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="X6">
         <f t="shared" si="2"/>
@@ -1944,34 +1130,34 @@
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>1.5</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="2">
         <v>3</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="2">
         <v>2</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="2">
         <v>-5.5</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="2">
         <v>6.5</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="2">
         <v>-3.5</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="2">
         <v>-1</v>
       </c>
-      <c r="I7" s="10">
+      <c r="I7" s="2">
         <v>-1.5</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -2002,7 +1188,7 @@
         <v>1</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="X7">
         <f t="shared" si="2"/>
@@ -2039,34 +1225,34 @@
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>8.5</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="2">
         <v>-0.5</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="2">
         <v>3.5</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="2">
         <v>6.5</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="2">
         <v>4</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="2">
         <v>4</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="2">
         <v>1.5</v>
       </c>
-      <c r="I8" s="10">
+      <c r="I8" s="2">
         <v>0</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -2097,7 +1283,7 @@
         <v>1</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="X8">
         <f t="shared" si="2"/>
@@ -2134,34 +1320,34 @@
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>4</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="2">
         <v>1.5</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="2">
         <v>5</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="2">
         <v>5.5</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="2">
         <v>10</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="2">
         <v>-2</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="2">
         <v>10</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I9" s="2">
         <v>15.5</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -2192,7 +1378,7 @@
         <v>1</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="X9">
         <f t="shared" si="2"/>
@@ -2229,34 +1415,34 @@
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>-1.5</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="2">
         <v>0.5</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="2">
         <v>-5</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="2">
         <v>999</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="2">
         <v>-3</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="2">
         <v>-4</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="2">
         <v>2.5</v>
       </c>
-      <c r="I10" s="10">
+      <c r="I10" s="2">
         <v>2.5</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -2287,7 +1473,7 @@
         <v>1</v>
       </c>
       <c r="W10" s="1" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="X10">
         <f t="shared" si="2"/>
@@ -2324,34 +1510,34 @@
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>1.5</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="2">
         <v>-1</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="2">
         <v>-3.5</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="2">
         <v>-6.5</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="2">
         <v>6.5</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="2">
         <v>-6</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H11" s="2">
         <v>-13</v>
       </c>
-      <c r="I11" s="10">
+      <c r="I11" s="2">
         <v>6</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -2382,7 +1568,7 @@
         <v>1</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="X11">
         <f t="shared" si="2"/>
@@ -2419,34 +1605,34 @@
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>-8.5</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="2">
         <v>-0.5</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="2">
         <v>-6</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="2">
         <v>-1.5</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="2">
         <v>-6.5</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12" s="2">
         <v>-1</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H12" s="2">
         <v>-10</v>
       </c>
-      <c r="I12" s="10">
+      <c r="I12" s="2">
         <v>-5.5</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -2477,7 +1663,7 @@
         <v>1</v>
       </c>
       <c r="W12" s="1" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="X12">
         <f t="shared" si="2"/>
@@ -2514,34 +1700,34 @@
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>3</v>
       </c>
-      <c r="C13" s="10">
-        <v>1</v>
-      </c>
-      <c r="D13" s="10">
-        <v>1</v>
-      </c>
-      <c r="E13" s="10">
+      <c r="C13" s="2">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2">
         <v>2</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F13" s="2">
         <v>3</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G13" s="2">
         <v>7</v>
       </c>
-      <c r="H13" s="10">
+      <c r="H13" s="2">
         <v>-2.5</v>
       </c>
-      <c r="I13" s="10">
+      <c r="I13" s="2">
         <v>0</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -2572,7 +1758,7 @@
         <v>1</v>
       </c>
       <c r="W13" s="1" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="X13">
         <f t="shared" si="2"/>
@@ -2647,113 +1833,113 @@
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="C20" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="D20" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="E20" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="F20" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="G20" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="H20" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="I20" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="M20" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="N20" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="O20" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="P20" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="Q20" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="R20" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="S20" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="T20" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="X20" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="Y20" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="Z20" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="AA20" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="AB20" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="AC20" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="AD20" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="AE20" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B21">
         <v>-6</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="2">
         <v>-3</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="2">
         <v>-4.5</v>
       </c>
-      <c r="E21" s="10">
+      <c r="E21" s="2">
         <v>1.5</v>
       </c>
-      <c r="F21" s="10">
+      <c r="F21" s="2">
         <v>-6.5</v>
       </c>
-      <c r="G21" s="10">
-        <v>0</v>
-      </c>
-      <c r="H21" s="10">
+      <c r="G21" s="2">
+        <v>0</v>
+      </c>
+      <c r="H21" s="2">
         <v>-11.5</v>
       </c>
-      <c r="I21" s="10">
+      <c r="I21" s="2">
         <v>-15.5</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -2784,7 +1970,7 @@
         <v>1</v>
       </c>
       <c r="W21" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X21">
         <f>B21*M21</f>
@@ -2821,34 +2007,34 @@
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B22">
         <v>2.5</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C22" s="2">
         <v>-4.5</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="2">
         <v>6</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E22" s="2">
         <v>12</v>
       </c>
-      <c r="F22" s="10">
+      <c r="F22" s="2">
         <v>2</v>
       </c>
-      <c r="G22" s="10">
+      <c r="G22" s="2">
         <v>6</v>
       </c>
-      <c r="H22" s="10">
+      <c r="H22" s="2">
         <v>-1.5</v>
       </c>
-      <c r="I22" s="10">
+      <c r="I22" s="2">
         <v>6.5</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -2879,7 +2065,7 @@
         <v>1</v>
       </c>
       <c r="W22" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="X22">
         <f t="shared" ref="X22:X32" si="12">B22*M22</f>
@@ -2916,34 +2102,34 @@
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B23">
         <v>-2.5</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C23" s="2">
         <v>-2.5</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="2">
         <v>999</v>
       </c>
-      <c r="E23" s="10">
+      <c r="E23" s="2">
         <v>-12</v>
       </c>
-      <c r="F23" s="10">
+      <c r="F23" s="2">
         <v>-1</v>
       </c>
-      <c r="G23" s="10">
+      <c r="G23" s="2">
         <v>-7</v>
       </c>
-      <c r="H23" s="10">
+      <c r="H23" s="2">
         <v>-7</v>
       </c>
-      <c r="I23" s="10">
+      <c r="I23" s="2">
         <v>-13.5</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -2974,7 +2160,7 @@
         <v>1</v>
       </c>
       <c r="W23" s="1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="X23">
         <f t="shared" si="12"/>
@@ -3011,34 +2197,34 @@
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B24">
         <v>15</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C24" s="2">
         <v>-1.5</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="2">
         <v>8</v>
       </c>
-      <c r="E24" s="10">
+      <c r="E24" s="2">
         <v>6.5</v>
       </c>
-      <c r="F24" s="10">
+      <c r="F24" s="2">
         <v>3.5</v>
       </c>
-      <c r="G24" s="10">
+      <c r="G24" s="2">
         <v>7.5</v>
       </c>
-      <c r="H24" s="10">
+      <c r="H24" s="2">
         <v>11</v>
       </c>
-      <c r="I24" s="10">
+      <c r="I24" s="2">
         <v>11.5</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -3069,7 +2255,7 @@
         <v>1</v>
       </c>
       <c r="W24" s="1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="X24">
         <f t="shared" si="12"/>
@@ -3106,34 +2292,34 @@
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B25">
         <v>4</v>
       </c>
-      <c r="C25" s="10">
+      <c r="C25" s="2">
         <v>1.5</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D25" s="2">
         <v>14.5</v>
       </c>
-      <c r="E25" s="10">
+      <c r="E25" s="2">
         <v>16</v>
       </c>
-      <c r="F25" s="10">
+      <c r="F25" s="2">
         <v>-3.5</v>
       </c>
-      <c r="G25" s="10">
+      <c r="G25" s="2">
         <v>2</v>
       </c>
-      <c r="H25" s="10">
+      <c r="H25" s="2">
         <v>13</v>
       </c>
-      <c r="I25" s="10">
+      <c r="I25" s="2">
         <v>6.5</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -3164,7 +2350,7 @@
         <v>1</v>
       </c>
       <c r="W25" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="X25">
         <f t="shared" si="12"/>
@@ -3201,34 +2387,34 @@
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="B26">
         <v>1.5</v>
       </c>
-      <c r="C26" s="10">
+      <c r="C26" s="2">
         <v>3</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D26" s="2">
         <v>2</v>
       </c>
-      <c r="E26" s="10">
+      <c r="E26" s="2">
         <v>-5.5</v>
       </c>
-      <c r="F26" s="10">
+      <c r="F26" s="2">
         <v>6.5</v>
       </c>
-      <c r="G26" s="10">
+      <c r="G26" s="2">
         <v>-3.5</v>
       </c>
-      <c r="H26" s="10">
+      <c r="H26" s="2">
         <v>-1</v>
       </c>
-      <c r="I26" s="10">
+      <c r="I26" s="2">
         <v>-1.5</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="M26">
         <v>0</v>
@@ -3259,7 +2445,7 @@
         <v>1</v>
       </c>
       <c r="W26" s="1" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="X26">
         <f t="shared" si="12"/>
@@ -3296,34 +2482,34 @@
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B27">
         <v>8.5</v>
       </c>
-      <c r="C27" s="10">
+      <c r="C27" s="2">
         <v>-0.5</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D27" s="2">
         <v>3.5</v>
       </c>
-      <c r="E27" s="10">
+      <c r="E27" s="2">
         <v>6.5</v>
       </c>
-      <c r="F27" s="10">
+      <c r="F27" s="2">
         <v>4</v>
       </c>
-      <c r="G27" s="10">
+      <c r="G27" s="2">
         <v>4</v>
       </c>
-      <c r="H27" s="10">
+      <c r="H27" s="2">
         <v>1.5</v>
       </c>
-      <c r="I27" s="10">
+      <c r="I27" s="2">
         <v>0</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="M27">
         <v>0</v>
@@ -3354,7 +2540,7 @@
         <v>1</v>
       </c>
       <c r="W27" s="1" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="X27">
         <f t="shared" si="12"/>
@@ -3391,34 +2577,34 @@
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B28">
         <v>4</v>
       </c>
-      <c r="C28" s="10">
+      <c r="C28" s="2">
         <v>1.5</v>
       </c>
-      <c r="D28" s="10">
+      <c r="D28" s="2">
         <v>5</v>
       </c>
-      <c r="E28" s="10">
+      <c r="E28" s="2">
         <v>5.5</v>
       </c>
-      <c r="F28" s="10">
+      <c r="F28" s="2">
         <v>10</v>
       </c>
-      <c r="G28" s="10">
+      <c r="G28" s="2">
         <v>-2</v>
       </c>
-      <c r="H28" s="10">
+      <c r="H28" s="2">
         <v>10</v>
       </c>
-      <c r="I28" s="10">
+      <c r="I28" s="2">
         <v>15.5</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="M28">
         <v>0</v>
@@ -3449,7 +2635,7 @@
         <v>1</v>
       </c>
       <c r="W28" s="1" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="X28">
         <f t="shared" si="12"/>
@@ -3486,34 +2672,34 @@
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="B29">
         <v>-1.5</v>
       </c>
-      <c r="C29" s="10">
+      <c r="C29" s="2">
         <v>0.5</v>
       </c>
-      <c r="D29" s="10">
+      <c r="D29" s="2">
         <v>-5</v>
       </c>
-      <c r="E29" s="10">
+      <c r="E29" s="2">
         <v>999</v>
       </c>
-      <c r="F29" s="10">
+      <c r="F29" s="2">
         <v>-3</v>
       </c>
-      <c r="G29" s="10">
+      <c r="G29" s="2">
         <v>-4</v>
       </c>
-      <c r="H29" s="10">
+      <c r="H29" s="2">
         <v>2.5</v>
       </c>
-      <c r="I29" s="10">
+      <c r="I29" s="2">
         <v>2.5</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="M29">
         <v>0</v>
@@ -3544,7 +2730,7 @@
         <v>1</v>
       </c>
       <c r="W29" s="1" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="X29">
         <f t="shared" si="12"/>
@@ -3581,34 +2767,34 @@
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="B30">
         <v>1.5</v>
       </c>
-      <c r="C30" s="10">
+      <c r="C30" s="2">
         <v>-1</v>
       </c>
-      <c r="D30" s="10">
+      <c r="D30" s="2">
         <v>-3.5</v>
       </c>
-      <c r="E30" s="10">
+      <c r="E30" s="2">
         <v>-6.5</v>
       </c>
-      <c r="F30" s="10">
+      <c r="F30" s="2">
         <v>6.5</v>
       </c>
-      <c r="G30" s="10">
+      <c r="G30" s="2">
         <v>-6</v>
       </c>
-      <c r="H30" s="10">
+      <c r="H30" s="2">
         <v>-13</v>
       </c>
-      <c r="I30" s="10">
+      <c r="I30" s="2">
         <v>6</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="M30">
         <v>0</v>
@@ -3639,7 +2825,7 @@
         <v>1</v>
       </c>
       <c r="W30" s="1" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="X30">
         <f t="shared" si="12"/>
@@ -3676,34 +2862,34 @@
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="B31">
         <v>-8.5</v>
       </c>
-      <c r="C31" s="10">
+      <c r="C31" s="2">
         <v>-0.5</v>
       </c>
-      <c r="D31" s="10">
+      <c r="D31" s="2">
         <v>-6</v>
       </c>
-      <c r="E31" s="10">
+      <c r="E31" s="2">
         <v>-1.5</v>
       </c>
-      <c r="F31" s="10">
+      <c r="F31" s="2">
         <v>-6.5</v>
       </c>
-      <c r="G31" s="10">
+      <c r="G31" s="2">
         <v>-1</v>
       </c>
-      <c r="H31" s="10">
+      <c r="H31" s="2">
         <v>-10</v>
       </c>
-      <c r="I31" s="10">
+      <c r="I31" s="2">
         <v>-5.5</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="M31">
         <v>1</v>
@@ -3734,7 +2920,7 @@
         <v>1</v>
       </c>
       <c r="W31" s="1" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="X31">
         <f t="shared" si="12"/>
@@ -3771,34 +2957,34 @@
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="B32">
         <v>3</v>
       </c>
-      <c r="C32" s="10">
-        <v>1</v>
-      </c>
-      <c r="D32" s="10">
-        <v>1</v>
-      </c>
-      <c r="E32" s="10">
+      <c r="C32" s="2">
+        <v>1</v>
+      </c>
+      <c r="D32" s="2">
+        <v>1</v>
+      </c>
+      <c r="E32" s="2">
         <v>2</v>
       </c>
-      <c r="F32" s="10">
+      <c r="F32" s="2">
         <v>3</v>
       </c>
-      <c r="G32" s="10">
+      <c r="G32" s="2">
         <v>7</v>
       </c>
-      <c r="H32" s="10">
+      <c r="H32" s="2">
         <v>-2.5</v>
       </c>
-      <c r="I32" s="10">
+      <c r="I32" s="2">
         <v>0</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="M32">
         <v>0</v>
@@ -3829,7 +3015,7 @@
         <v>1</v>
       </c>
       <c r="W32" s="1" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="X32">
         <f t="shared" si="12"/>
@@ -4220,22 +3406,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:I13">
-    <cfRule type="expression" dxfId="4" priority="4">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>M2=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M41:T52">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M21:T32">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:T13">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>

--- a/MK_Survival.xlsx
+++ b/MK_Survival.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kylet\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{945F962C-63F4-4C2F-9EA2-3D6930795F79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61566AF2-0FE0-4B19-A0D2-8DBD733D5FCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -569,7 +569,7 @@
   <dimension ref="A1:AE52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
